--- a/data/JSA I DO.xlsx
+++ b/data/JSA I DO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schvelleng/Desktop/NYSI Data/JSA/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8497F2F-7C43-D74C-BC97-9C0BEC5F3DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE3DAE7-6C87-2F46-88DD-187E1EAA8D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" firstSheet="2" activeTab="3" xr2:uid="{06442DAE-4CFD-4755-9797-154C5FACCFD0}"/>
   </bookViews>
@@ -201,10 +201,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -230,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -238,6 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2168,7 +2176,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="C2" activeCellId="1" sqref="H11 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2337,20 +2345,20 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2368,26 +2376,26 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="I13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>49</v>
       </c>
     </row>
